--- a/cleaned files/Gender_over_Time.xlsx
+++ b/cleaned files/Gender_over_Time.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yli355\Documents\APE files\cleaned files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505F597A-6A2E-4055-8A2A-CEBFABAB13AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="26340" yWindow="5025" windowWidth="24480" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Type</t>
   </si>
@@ -52,9 +58,6 @@
     <t>2014-2015</t>
   </si>
   <si>
-    <t>% Change from 2013-2014 to 2014-2015</t>
-  </si>
-  <si>
     <t>2015-2016</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>2024-2025</t>
-  </si>
-  <si>
-    <t>% Change from 2023-2024 to 2024-2025</t>
   </si>
   <si>
     <t>Acceptees</t>
@@ -112,8 +112,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,13 +176,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -220,7 +228,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -254,6 +262,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -288,9 +297,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -463,14 +473,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W1" sqref="W1:W1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,19 +549,13 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>9221</v>
@@ -582,48 +588,42 @@
         <v>11161</v>
       </c>
       <c r="M2">
-        <v>0.6</v>
+        <v>11271</v>
       </c>
       <c r="N2">
-        <v>11271</v>
+        <v>11091</v>
       </c>
       <c r="O2">
-        <v>11091</v>
+        <v>10966</v>
       </c>
       <c r="P2">
-        <v>10966</v>
+        <v>10864</v>
       </c>
       <c r="Q2">
-        <v>10864</v>
+        <v>10787</v>
       </c>
       <c r="R2">
-        <v>10787</v>
+        <v>10644</v>
       </c>
       <c r="S2">
-        <v>10644</v>
+        <v>10537</v>
       </c>
       <c r="T2">
-        <v>10537</v>
+        <v>10520</v>
       </c>
       <c r="U2">
-        <v>10520</v>
+        <v>10609</v>
       </c>
       <c r="V2">
-        <v>10609</v>
-      </c>
-      <c r="W2">
         <v>10667</v>
       </c>
-      <c r="X2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>8765</v>
@@ -656,65 +656,56 @@
         <v>10194</v>
       </c>
       <c r="M3">
-        <v>2.2</v>
+        <v>10372</v>
       </c>
       <c r="N3">
-        <v>10372</v>
+        <v>10940</v>
       </c>
       <c r="O3">
-        <v>10940</v>
+        <v>11287</v>
       </c>
       <c r="P3">
-        <v>11287</v>
+        <v>11611</v>
       </c>
       <c r="Q3">
-        <v>11611</v>
+        <v>11893</v>
       </c>
       <c r="R3">
-        <v>11893</v>
+        <v>12417</v>
       </c>
       <c r="S3">
-        <v>12417</v>
+        <v>13152</v>
       </c>
       <c r="T3">
-        <v>13152</v>
+        <v>13268</v>
       </c>
       <c r="U3">
-        <v>13268</v>
+        <v>13298</v>
       </c>
       <c r="V3">
-        <v>13298</v>
-      </c>
-      <c r="W3">
         <v>13341</v>
       </c>
-      <c r="X3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="U4">
+        <v>90</v>
       </c>
       <c r="V4">
-        <v>90</v>
-      </c>
-      <c r="W4">
         <v>137</v>
       </c>
-      <c r="X4">
-        <v>52.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>18747</v>
@@ -747,48 +738,42 @@
         <v>26455</v>
       </c>
       <c r="M5">
-        <v>2.7</v>
+        <v>27927</v>
       </c>
       <c r="N5">
-        <v>27927</v>
+        <v>27250</v>
       </c>
       <c r="O5">
-        <v>27250</v>
+        <v>26058</v>
       </c>
       <c r="P5">
-        <v>26058</v>
+        <v>25875</v>
       </c>
       <c r="Q5">
-        <v>25875</v>
+        <v>25493</v>
       </c>
       <c r="R5">
-        <v>25493</v>
+        <v>24620</v>
       </c>
       <c r="S5">
-        <v>24620</v>
+        <v>26948</v>
       </c>
       <c r="T5">
-        <v>26948</v>
+        <v>23924</v>
       </c>
       <c r="U5">
-        <v>23924</v>
+        <v>22574</v>
       </c>
       <c r="V5">
-        <v>22574</v>
-      </c>
-      <c r="W5">
         <v>22088</v>
       </c>
-      <c r="X5">
-        <v>-2.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6">
         <v>18624</v>
@@ -821,65 +806,56 @@
         <v>23019</v>
       </c>
       <c r="M6">
-        <v>3.5</v>
+        <v>24608</v>
       </c>
       <c r="N6">
-        <v>24608</v>
+        <v>25779</v>
       </c>
       <c r="O6">
-        <v>25779</v>
+        <v>25600</v>
       </c>
       <c r="P6">
-        <v>25600</v>
+        <v>26882</v>
       </c>
       <c r="Q6">
-        <v>26882</v>
+        <v>27847</v>
       </c>
       <c r="R6">
-        <v>27847</v>
+        <v>28343</v>
       </c>
       <c r="S6">
-        <v>28343</v>
+        <v>35438</v>
       </c>
       <c r="T6">
-        <v>35438</v>
+        <v>31191</v>
       </c>
       <c r="U6">
-        <v>31191</v>
+        <v>29763</v>
       </c>
       <c r="V6">
-        <v>29763</v>
-      </c>
-      <c r="W6">
         <v>29528</v>
       </c>
-      <c r="X6">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="U7">
+        <v>193</v>
       </c>
       <c r="V7">
-        <v>193</v>
-      </c>
-      <c r="W7">
         <v>266</v>
       </c>
-      <c r="X7">
-        <v>37.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
       </c>
       <c r="C8">
         <v>13898</v>
@@ -912,48 +888,42 @@
         <v>19031</v>
       </c>
       <c r="M8">
-        <v>2.1</v>
+        <v>19687</v>
       </c>
       <c r="N8">
-        <v>19687</v>
+        <v>19090</v>
       </c>
       <c r="O8">
-        <v>19090</v>
+        <v>18072</v>
       </c>
       <c r="P8">
-        <v>18072</v>
+        <v>18220</v>
       </c>
       <c r="Q8">
-        <v>18220</v>
+        <v>17963</v>
       </c>
       <c r="R8">
-        <v>17963</v>
+        <v>17101</v>
       </c>
       <c r="S8">
-        <v>17101</v>
+        <v>19421</v>
       </c>
       <c r="T8">
-        <v>19421</v>
+        <v>16210</v>
       </c>
       <c r="U8">
-        <v>16210</v>
+        <v>15907</v>
       </c>
       <c r="V8">
-        <v>15907</v>
-      </c>
-      <c r="W8">
         <v>16107</v>
       </c>
-      <c r="X8">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9">
         <v>14318</v>
@@ -986,65 +956,56 @@
         <v>17588</v>
       </c>
       <c r="M9">
-        <v>3.3</v>
+        <v>18697</v>
       </c>
       <c r="N9">
-        <v>18697</v>
+        <v>19682</v>
       </c>
       <c r="O9">
-        <v>19682</v>
+        <v>19272</v>
       </c>
       <c r="P9">
-        <v>19272</v>
+        <v>20247</v>
       </c>
       <c r="Q9">
-        <v>20247</v>
+        <v>21248</v>
       </c>
       <c r="R9">
-        <v>21248</v>
+        <v>21421</v>
       </c>
       <c r="S9">
-        <v>21421</v>
+        <v>27288</v>
       </c>
       <c r="T9">
-        <v>27288</v>
+        <v>22449</v>
       </c>
       <c r="U9">
-        <v>22449</v>
+        <v>21651</v>
       </c>
       <c r="V9">
-        <v>21651</v>
-      </c>
-      <c r="W9">
         <v>22253</v>
       </c>
-      <c r="X9">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="U10">
+        <v>130</v>
+      </c>
+      <c r="V10">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="V10">
-        <v>130</v>
-      </c>
-      <c r="W10">
-        <v>184</v>
-      </c>
-      <c r="X10">
-        <v>41.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
       </c>
       <c r="C11">
         <v>8764</v>
@@ -1077,48 +1038,42 @@
         <v>10625</v>
       </c>
       <c r="M11">
-        <v>0.3</v>
+        <v>10766</v>
       </c>
       <c r="N11">
-        <v>10766</v>
+        <v>10551</v>
       </c>
       <c r="O11">
-        <v>10551</v>
+        <v>10516</v>
       </c>
       <c r="P11">
-        <v>10516</v>
+        <v>10454</v>
       </c>
       <c r="Q11">
-        <v>10454</v>
+        <v>10402</v>
       </c>
       <c r="R11">
-        <v>10402</v>
+        <v>10271</v>
       </c>
       <c r="S11">
-        <v>10271</v>
+        <v>10057</v>
       </c>
       <c r="T11">
-        <v>10057</v>
+        <v>10060</v>
       </c>
       <c r="U11">
-        <v>10060</v>
+        <v>10160</v>
       </c>
       <c r="V11">
-        <v>10160</v>
-      </c>
-      <c r="W11">
         <v>10261</v>
       </c>
-      <c r="X11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
       </c>
       <c r="C12">
         <v>8239</v>
@@ -1151,57 +1106,48 @@
         <v>9718</v>
       </c>
       <c r="M12">
-        <v>2.7</v>
+        <v>9861</v>
       </c>
       <c r="N12">
-        <v>9861</v>
+        <v>10474</v>
       </c>
       <c r="O12">
-        <v>10474</v>
+        <v>10810</v>
       </c>
       <c r="P12">
-        <v>10810</v>
+        <v>11160</v>
       </c>
       <c r="Q12">
-        <v>11160</v>
+        <v>11461</v>
       </c>
       <c r="R12">
-        <v>11461</v>
+        <v>11926</v>
       </c>
       <c r="S12">
-        <v>11926</v>
+        <v>12590</v>
       </c>
       <c r="T12">
-        <v>12590</v>
+        <v>12630</v>
       </c>
       <c r="U12">
-        <v>12630</v>
+        <v>12723</v>
       </c>
       <c r="V12">
-        <v>12723</v>
-      </c>
-      <c r="W12">
         <v>12749</v>
       </c>
-      <c r="X12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>28</v>
+      </c>
+      <c r="U13">
+        <v>82</v>
       </c>
       <c r="V13">
-        <v>82</v>
-      </c>
-      <c r="W13">
         <v>123</v>
-      </c>
-      <c r="X13">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
